--- a/用例数据/股转/无限售流通股份转限售/测试结果.xlsx
+++ b/用例数据/股转/无限售流通股份转限售/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2220" windowWidth="28800" windowHeight="11832" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2220" windowWidth="28800" windowHeight="11835" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TRACE_MKT_20061632" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="374">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1112,6 +1112,84 @@
   <si>
     <t>stklist</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>529999947.0000</t>
+  </si>
+  <si>
+    <t>99999.9900</t>
+  </si>
+  <si>
+    <t>OCCURCREDITLOCKSHAREQTY</t>
+  </si>
+  <si>
+    <t>GAPFROZENQTY</t>
+  </si>
+  <si>
+    <t>ZRTTRANSQTY</t>
+  </si>
+  <si>
+    <t>CREDITSHAREGOINGQTY</t>
+  </si>
+  <si>
+    <t>CREDITUSABLEQTY</t>
+  </si>
+  <si>
+    <t>CREDITBUYFROZENQTY</t>
+  </si>
+  <si>
+    <t>FIRSTOTHERFEE</t>
+  </si>
+  <si>
+    <t>SECONDOTHERFEE</t>
+  </si>
+  <si>
+    <t>ADJUSTEDFEEFLAG</t>
+  </si>
+  <si>
+    <t>OTHERFEE4</t>
+  </si>
+  <si>
+    <t>30052758</t>
+  </si>
+  <si>
+    <t>20221007203502</t>
+  </si>
+  <si>
+    <t>20221007000000</t>
+  </si>
+  <si>
+    <t>999286662.010</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>000006907702</t>
+  </si>
+  <si>
+    <t>1.0000000000</t>
+  </si>
+  <si>
+    <t>30052756</t>
+  </si>
+  <si>
+    <t>000006907700</t>
+  </si>
+  <si>
+    <t>30052755</t>
+  </si>
+  <si>
+    <t>000006907699</t>
+  </si>
+  <si>
+    <t>30052757</t>
+  </si>
+  <si>
+    <t>000006907701</t>
   </si>
 </sst>
 </file>
@@ -1602,23 +1680,23 @@
       <selection pane="topRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1778,127 +1856,127 @@
       <selection activeCell="A25" sqref="A25:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.625" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.375" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="15" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="22.625" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="15" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="64" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="103" max="104" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="61" max="64" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="103" max="104" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="11.625" bestFit="1" customWidth="1"/>
     <col min="109" max="110" width="15" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="9.5" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="15" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="124" max="125" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="125" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="8.5" bestFit="1" customWidth="1"/>
     <col min="131" max="131" width="15" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:135" s="1" customFormat="1">
@@ -5268,88 +5346,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB2"/>
+  <dimension ref="A1:CH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="15" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="15" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="15" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="15" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" s="1" customFormat="1">
+    <row r="1" spans="1:86" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5386,13 +5463,13 @@
       <c r="L1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="13" t="s">
         <v>30</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -5590,8 +5667,26 @@
       <c r="CB1" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="CC1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>355</v>
+      </c>
     </row>
-    <row r="2" spans="1:80" s="1" customFormat="1">
+    <row r="2" spans="1:86" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
@@ -5620,24 +5715,24 @@
         <v>105</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>106</v>
+        <v>314</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>107</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>108</v>
+        <v>348</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="1" t="s">
         <v>315</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -5671,7 +5766,7 @@
         <v>113</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>114</v>
+        <v>349</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>105</v>
@@ -5724,7 +5819,7 @@
       <c r="AR2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AS2" s="13" t="s">
+      <c r="AS2" s="1" t="s">
         <v>315</v>
       </c>
       <c r="AT2" s="1" t="s">
@@ -5794,7 +5889,7 @@
         <v>107</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>108</v>
+        <v>348</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>109</v>
@@ -5830,6 +5925,21 @@
         <v>105</v>
       </c>
       <c r="CB2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH2" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5847,19 +5957,19 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
@@ -6002,140 +6112,138 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EC5"/>
+  <dimension ref="A1:EI5"/>
   <sheetViews>
-    <sheetView topLeftCell="DW1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="15" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="101" max="102" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="15" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="15" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="15" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="80" max="81" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="99" max="100" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="105" max="106" width="15" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="15" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="120" max="121" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="15" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:133" s="1" customFormat="1">
+    <row r="1" spans="1:139" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
@@ -6535,10 +6643,28 @@
       <c r="EC1" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="ED1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>359</v>
+      </c>
     </row>
-    <row r="2" spans="1:133" s="1" customFormat="1">
+    <row r="2" spans="1:139" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>202</v>
@@ -6547,10 +6673,10 @@
         <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>99</v>
@@ -6598,7 +6724,7 @@
         <v>192</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>189</v>
+        <v>362</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>109</v>
@@ -6607,7 +6733,7 @@
         <v>109</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>204</v>
+        <v>363</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>314</v>
@@ -6709,7 +6835,7 @@
         <v>105</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>209</v>
+        <v>364</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>196</v>
@@ -6739,7 +6865,7 @@
         <v>98</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>105</v>
+        <v>365</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>109</v>
@@ -6757,13 +6883,13 @@
         <v>105</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>196</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>189</v>
+        <v>362</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>115</v>
@@ -6796,7 +6922,7 @@
         <v>196</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>117</v>
+        <v>367</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>109</v>
@@ -6843,10 +6969,22 @@
       <c r="DY2" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="ED2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="3" spans="1:133" s="1" customFormat="1">
+    <row r="3" spans="1:139" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>202</v>
@@ -6855,10 +6993,10 @@
         <v>110</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>99</v>
@@ -6906,7 +7044,7 @@
         <v>192</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>189</v>
+        <v>362</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>109</v>
@@ -6915,7 +7053,7 @@
         <v>109</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>204</v>
+        <v>363</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>320</v>
@@ -7017,7 +7155,7 @@
         <v>105</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>209</v>
+        <v>364</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>196</v>
@@ -7047,7 +7185,7 @@
         <v>98</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>105</v>
+        <v>365</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>109</v>
@@ -7065,13 +7203,13 @@
         <v>105</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>321</v>
+        <v>369</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>196</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>189</v>
+        <v>362</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>115</v>
@@ -7104,7 +7242,7 @@
         <v>196</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>117</v>
+        <v>367</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>109</v>
@@ -7151,10 +7289,22 @@
       <c r="DY3" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="ED3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="EE3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="EG3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="EI3" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="4" spans="1:133" s="1" customFormat="1">
+    <row r="4" spans="1:139" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>214</v>
@@ -7163,10 +7313,10 @@
         <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>99</v>
@@ -7208,13 +7358,13 @@
         <v>190</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>192</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>189</v>
+        <v>362</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>109</v>
@@ -7223,10 +7373,10 @@
         <v>109</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>204</v>
+        <v>363</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>109</v>
@@ -7325,7 +7475,7 @@
         <v>105</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>209</v>
+        <v>364</v>
       </c>
       <c r="BP4" s="1" t="s">
         <v>196</v>
@@ -7355,7 +7505,7 @@
         <v>98</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>105</v>
+        <v>365</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>109</v>
@@ -7373,13 +7523,13 @@
         <v>105</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>196</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>189</v>
+        <v>362</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>115</v>
@@ -7412,7 +7562,7 @@
         <v>196</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>117</v>
+        <v>367</v>
       </c>
       <c r="DK4" s="1" t="s">
         <v>109</v>
@@ -7459,10 +7609,22 @@
       <c r="DY4" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="ED4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="EE4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="EG4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="EI4" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="5" spans="1:133" s="1" customFormat="1">
+    <row r="5" spans="1:139" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>214</v>
@@ -7471,10 +7633,10 @@
         <v>110</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>99</v>
@@ -7516,13 +7678,13 @@
         <v>190</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>192</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>189</v>
+        <v>362</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>109</v>
@@ -7531,10 +7693,10 @@
         <v>109</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>204</v>
+        <v>363</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>109</v>
@@ -7633,7 +7795,7 @@
         <v>105</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>209</v>
+        <v>364</v>
       </c>
       <c r="BP5" s="1" t="s">
         <v>196</v>
@@ -7663,7 +7825,7 @@
         <v>98</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>105</v>
+        <v>365</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>109</v>
@@ -7681,13 +7843,13 @@
         <v>105</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>196</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>189</v>
+        <v>362</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>115</v>
@@ -7720,7 +7882,7 @@
         <v>196</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>117</v>
+        <v>367</v>
       </c>
       <c r="DK5" s="1" t="s">
         <v>109</v>
@@ -7766,6 +7928,18 @@
       </c>
       <c r="DY5" s="1" t="s">
         <v>109</v>
+      </c>
+      <c r="ED5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="EE5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="EG5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="EI5" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -7778,69 +7952,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="39" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="15" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.875" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" s="1" customFormat="1">
